--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/bcw_train_60_test_40_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/bcw_train_60_test_40_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D2" t="n">
+        <v>0.9385964912280702</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9254385964912281</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.9605263157894737</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.9429824561403509</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9254385964912281</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
     </row>
   </sheetData>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/bcw_train_60_test_40_depth_accuracy.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/bcw_train_60_test_40_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9385964912280702</v>
+        <v>93.86</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9298245614035088</v>
+        <v>92.98</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9385964912280702</v>
+        <v>93.86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9254385964912281</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9605263157894737</v>
+        <v>96.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9429824561403509</v>
+        <v>94.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9429824561403509</v>
+        <v>94.3</v>
       </c>
     </row>
   </sheetData>
